--- a/klasifikasi/classification_report.xlsx
+++ b/klasifikasi/classification_report.xlsx
@@ -7,11 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aeq" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dass" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="erq" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nilai_emosi" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="class_emosi" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nilai_emosi" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="class_emosi" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nilai_emosi_htuning" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cr_algorithm" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,81 +456,65 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Class_Positive</t>
+          <t>nilai_pretest</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.20999999999999</v>
+        <v>71.72</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>91.92</v>
       </c>
       <c r="D2" t="n">
-        <v>94.64</v>
+        <v>84.84999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Class_Negative</t>
+          <t>nilai_posttest</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.53</v>
+        <v>87.5</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>98.75</v>
       </c>
       <c r="D3" t="n">
-        <v>96.3</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Test_Positive</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.7</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>78.45999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>98.84999999999999</v>
+        <v>66.15000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Test_Negative</t>
+          <t>Summary</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95.65000000000001</v>
+        <v>75.12</v>
       </c>
       <c r="C5" t="n">
-        <v>98.55</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Summary</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>97.27</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99.64</v>
-      </c>
-      <c r="D6" t="n">
-        <v>96</v>
+        <v>76.17</v>
       </c>
     </row>
   </sheetData>
@@ -573,49 +556,49 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Depression</t>
+          <t>nilai_pretest</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.8</v>
+        <v>68.69</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Anxiety</t>
+          <t>nilai_posttest</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.22</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>78.75</v>
       </c>
       <c r="D3" t="n">
-        <v>88.31</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.06999999999999</v>
+        <v>56.92</v>
       </c>
       <c r="C4" t="n">
-        <v>99.06999999999999</v>
+        <v>64.62</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="5">
@@ -625,13 +608,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.36</v>
+        <v>60.2</v>
       </c>
       <c r="C5" t="n">
-        <v>99.69</v>
+        <v>72.37</v>
       </c>
       <c r="D5" t="n">
-        <v>96.09999999999999</v>
+        <v>71.02</v>
       </c>
     </row>
   </sheetData>
@@ -640,90 +623,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Naive Bayes</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Support Vector Machine</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>K-Nearest Neighbor</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>CRF</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>93.94</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>96.97</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ESF</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>93.94</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>96.97</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Summary</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>93.94</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -761,13 +660,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.89</v>
+        <v>69.7</v>
       </c>
       <c r="C2" t="n">
-        <v>82.22</v>
+        <v>93.94</v>
       </c>
       <c r="D2" t="n">
-        <v>86.67</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="3">
@@ -777,13 +676,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.08</v>
+        <v>88.75</v>
       </c>
       <c r="C3" t="n">
-        <v>93.59</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>84.62</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="4">
@@ -793,13 +692,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.63</v>
+        <v>69.23</v>
       </c>
       <c r="C4" t="n">
-        <v>83.58</v>
+        <v>92.31</v>
       </c>
       <c r="D4" t="n">
-        <v>92.54000000000001</v>
+        <v>81.54000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -809,13 +708,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.53</v>
+        <v>75.89</v>
       </c>
       <c r="C5" t="n">
-        <v>86.45999999999999</v>
+        <v>95.42</v>
       </c>
       <c r="D5" t="n">
-        <v>87.94</v>
+        <v>83.56</v>
       </c>
     </row>
   </sheetData>
@@ -823,13 +722,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,84 +737,282 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Klasifikasi</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Metrik Evaluasi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Naive Bayes</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Support Vector Machine</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>K-Nearest Neighbor</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>nilai_pretest</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>68.89</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Akurasi (%)</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>76.67</v>
+        <v>69.7</v>
       </c>
       <c r="D2" t="n">
-        <v>78.89</v>
+        <v>93.94</v>
+      </c>
+      <c r="E2" t="n">
+        <v>87.88</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision (%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70.16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>91.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall (%)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>93.94</v>
+      </c>
+      <c r="E4" t="n">
+        <v>87.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1-score (%)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68.66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>93.93000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>87.45999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nilai_posttest</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>51.28</v>
-      </c>
-      <c r="C3" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>78.20999999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Akurasi (%)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Precision (%)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>89.97</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>86.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Recall (%)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F1-score (%)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>88.66</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>80.56999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>delta</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="C4" t="n">
-        <v>65.67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.63</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Summary</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>56.47</v>
-      </c>
-      <c r="C5" t="n">
-        <v>69.67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>77.23999999999999</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Akurasi (%)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="D10" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="E10" t="n">
+        <v>81.54000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Precision (%)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>93.34999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>86.56999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Recall (%)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="E12" t="n">
+        <v>81.54000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1-score (%)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>67.84999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>92.27</v>
+      </c>
+      <c r="E13" t="n">
+        <v>80.94</v>
       </c>
     </row>
   </sheetData>
